--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44796</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43332</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43339</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43360</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43392</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>43405</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>43405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43409</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43416</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43425</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43475</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43486</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43503</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43549</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43550</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43552</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43563</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43566</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43587</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43600</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43605</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43609</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43613</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43613</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43627</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43636</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43644</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43651</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43696</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43700</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43700</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43705</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43706</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43707</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43712</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43713</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43733</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43766</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43769</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43770</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43770</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43782</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43783</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43784</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43787</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43787</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43795</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43796</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43796</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43798</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43801</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43801</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43824</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43832</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43843</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43847</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43864</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43864</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43871</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43871</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43875</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43878</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43893</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43900</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43902</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43903</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43903</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43906</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43907</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43908</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43908</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43930</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43935</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43957</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43959</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43959</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43962</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43969</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43979</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43984</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>44006</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44034</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44040</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44051</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44054</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44075</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44084</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44087</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44088</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44095</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44098</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44106</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>44110</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>44110</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44113</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>44123</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44137</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44151</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44151</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>44153</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>44157</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44162</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>44162</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>44165</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>44166</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44167</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>44181</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>44181</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>44183</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44188</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44188</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>44201</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>44203</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44208</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44215</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44216</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>44221</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44221</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>44230</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44235</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44237</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44251</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44264</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44267</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44270</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44299</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44299</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44307</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44307</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44342</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44343</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44375</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44378</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44378</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44432</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>44432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>44441</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>44448</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44456</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44460</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>44460</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44461</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44474</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44475</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>44476</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>44504</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>44505</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>44550</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>44564</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>44565</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>44580</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>44587</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44594</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44615</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44616</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44620</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44623</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44631</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44642</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>44643</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>44644</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>44685</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44700</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44796</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44802</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>44812</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44816</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>44824</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>44858</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>44858</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44858</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44858</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44867</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>44867</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>44867</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>44875</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>44900</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44900</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44900</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44934</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>44934</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>44935</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>44936</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>44979</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45005</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45105</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45116</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45116</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45116</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45142</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45142</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>45142</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>45142</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45142</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45146</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>45146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>

--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44796</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43332</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43339</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43360</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43392</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>43405</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>43405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43409</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43416</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43425</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43475</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43486</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43503</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43549</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43550</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43552</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43563</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43566</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43587</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43600</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43605</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43609</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43613</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43613</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43627</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43636</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43644</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43651</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43696</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43700</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43700</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43705</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43706</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43707</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43712</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43713</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43733</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43766</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43769</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43770</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43770</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43782</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43783</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43784</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43787</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43787</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43795</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43796</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43796</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43798</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43801</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43801</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43824</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43832</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43843</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43847</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43864</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43864</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43871</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43871</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43875</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43878</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43893</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43900</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43902</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43903</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43903</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43906</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43907</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43908</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43908</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43930</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43935</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43957</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43959</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43959</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43962</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43969</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43979</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43984</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>44006</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44034</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44040</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44051</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44054</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44075</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44084</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44087</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44088</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44095</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44098</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44106</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>44110</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>44110</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44113</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>44123</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44137</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44151</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44151</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>44153</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>44157</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44162</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>44162</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>44165</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>44166</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44167</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>44181</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>44181</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>44183</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44188</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44188</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>44201</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>44203</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44208</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44215</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44216</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>44221</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44221</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>44230</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44235</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44237</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44251</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44264</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44267</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44270</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44299</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44299</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44307</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44307</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44342</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44343</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44375</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44378</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44378</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44432</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>44432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>44441</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>44448</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44456</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44460</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>44460</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44461</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44474</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44475</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>44476</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>44504</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>44505</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>44550</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>44564</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>44565</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>44580</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>44587</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44594</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44615</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44616</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44620</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44623</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44631</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44642</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>44643</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>44644</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>44685</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44700</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44796</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44802</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>44812</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44816</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>44824</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>44858</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>44858</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44858</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44858</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44867</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>44867</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>44867</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>44875</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>44900</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44900</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44900</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44934</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>44934</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>44935</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>44936</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>44979</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45005</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45105</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45116</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45116</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45116</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45142</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45142</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>45142</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>45142</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45142</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45146</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>45146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>

--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44796</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43332</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43339</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43360</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43392</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>43405</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>43405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43409</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43416</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43425</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43475</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43486</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43503</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43549</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43550</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43552</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43563</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43566</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43587</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43600</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43605</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43609</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43613</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43613</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43627</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43636</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43644</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43651</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43696</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43700</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43700</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43705</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43706</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43707</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43712</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43713</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43733</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43766</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43769</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43770</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43770</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43782</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43783</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43784</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43787</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43787</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43795</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43796</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43796</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43798</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43801</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43801</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43824</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43832</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43843</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43847</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43864</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43864</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43871</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43871</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43875</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43878</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43893</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43900</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43902</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43903</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43903</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43906</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43907</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43908</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43908</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43930</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43935</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43957</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43959</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43959</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43962</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43969</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43979</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43984</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>44006</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44034</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44040</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44051</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44054</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44075</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44084</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44087</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44088</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44095</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44098</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44106</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>44110</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>44110</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44113</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>44123</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44137</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44151</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44151</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>44153</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>44157</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44162</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>44162</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>44165</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>44166</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44167</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>44181</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>44181</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>44183</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44188</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44188</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>44201</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>44203</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44208</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44215</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44216</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>44221</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44221</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>44230</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44235</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44237</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44251</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44264</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44267</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44270</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44299</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44299</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44307</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44307</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44342</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44343</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44375</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44378</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44378</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44432</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>44432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>44441</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>44448</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44456</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44460</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>44460</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44461</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44474</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44475</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>44476</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>44504</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>44505</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>44550</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>44564</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>44565</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>44580</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>44587</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44594</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44615</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44616</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44620</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44623</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44631</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44642</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>44643</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>44644</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>44685</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44700</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44796</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44802</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>44812</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44816</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>44824</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>44858</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>44858</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44858</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44858</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44867</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>44867</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>44867</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>44875</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>44900</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44900</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44900</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44934</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>44934</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>44935</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>44936</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>44979</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45005</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45105</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45116</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45116</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45116</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45142</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45142</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>45142</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>45142</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45142</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45146</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>45146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>

--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44796</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43332</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43339</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43360</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43392</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>43405</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>43405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43409</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43416</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43425</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43475</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43486</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43503</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43549</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43550</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43552</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43563</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43566</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43587</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43600</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43605</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43609</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43613</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43613</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43627</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43636</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43644</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43651</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43696</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43700</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43700</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43705</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43706</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43707</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43712</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43713</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43733</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43766</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43769</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43770</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43770</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43782</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43783</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43784</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43787</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43787</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43795</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43796</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43796</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43798</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43801</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43801</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43824</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43832</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43843</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43847</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43864</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43864</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43871</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43871</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43875</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43878</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43893</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43900</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43902</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43903</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43903</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43906</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43907</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43908</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43908</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43930</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43935</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43957</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43959</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43959</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43962</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43969</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43979</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43984</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>44006</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44034</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44040</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44051</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44054</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44075</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44084</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44087</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44088</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44095</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44098</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44106</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>44110</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>44110</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44113</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>44123</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44137</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44151</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44151</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>44153</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>44157</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44162</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>44162</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>44165</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>44166</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44167</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>44181</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>44181</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>44183</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44188</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44188</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>44201</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>44203</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44208</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44215</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44216</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>44221</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44221</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>44230</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44235</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44237</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44251</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44264</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44267</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44270</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44299</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44299</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44307</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44307</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44342</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44343</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44375</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44378</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44378</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44432</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>44432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>44441</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>44448</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44456</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44460</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>44460</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44461</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44474</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44475</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>44476</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>44504</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>44505</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>44550</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>44564</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>44565</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>44580</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>44587</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44594</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44615</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44616</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44620</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44623</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44631</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44642</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>44643</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>44644</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>44685</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44700</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44796</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44802</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>44812</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44816</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>44824</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>44858</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>44858</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44858</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44858</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44867</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>44867</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>44867</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>44875</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>44900</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44900</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44900</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44934</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>44934</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>44935</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>44936</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>44979</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45005</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45105</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45116</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45116</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45116</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45142</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45142</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>45142</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>45142</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45142</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45146</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>45146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>

--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44796</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43332</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43339</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43360</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43392</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>43405</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>43405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43409</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43416</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43425</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43475</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43486</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43503</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43549</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43550</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43552</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43563</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43566</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43587</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43600</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43605</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43609</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43613</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43613</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43627</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43636</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43644</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43651</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43696</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43700</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43700</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43705</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43706</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43707</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43712</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43713</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43733</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43766</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43769</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43770</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43770</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43782</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43783</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43784</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43787</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43787</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43795</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43796</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43796</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43798</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43801</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43801</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43824</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43832</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43843</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43847</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43864</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43864</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43871</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43871</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43875</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43878</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43893</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43900</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43902</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43903</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43903</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43906</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43907</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43908</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43908</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43930</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43935</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43957</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43959</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43959</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43962</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43969</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43979</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43984</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>44006</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44034</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44040</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44051</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44054</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44075</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44084</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44087</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44088</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44095</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44098</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44106</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>44110</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>44110</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44113</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>44123</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44137</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44151</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44151</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>44153</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>44157</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44162</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>44162</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>44165</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>44166</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44167</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>44181</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>44181</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>44183</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44188</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44188</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>44201</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>44203</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44208</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44215</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44216</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>44221</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44221</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>44230</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44235</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44237</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44251</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44264</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44267</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44270</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44299</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44299</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44307</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44307</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44342</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44343</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44375</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44378</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44378</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44432</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>44432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>44441</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>44448</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44456</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44460</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>44460</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44461</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44474</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44475</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>44476</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>44504</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>44505</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>44550</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>44564</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>44565</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>44580</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>44587</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44594</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44615</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44616</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44620</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44623</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44631</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44642</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>44643</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>44644</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>44685</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44700</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44796</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44802</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>44812</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44816</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>44824</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>44858</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>44858</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44858</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44858</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44867</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>44867</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>44867</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>44875</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>44900</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44900</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44900</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44934</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>44934</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>44935</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>44936</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>44979</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45005</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45105</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45116</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45116</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45116</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45142</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45142</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>45142</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>45142</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45142</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45146</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>45146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>

--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44796</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43332</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43339</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43360</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43392</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>43405</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>43405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43409</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43416</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43425</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43475</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43486</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43503</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43549</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43550</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43552</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43563</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43566</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43587</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43600</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43605</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43609</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43613</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43613</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43627</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43636</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43644</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43651</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43696</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43700</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43700</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43705</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43706</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43707</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43712</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43713</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43733</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43766</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43769</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43770</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43770</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43782</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43783</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43784</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43787</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43787</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43795</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43796</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43796</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43798</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43801</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43801</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43824</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43832</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43843</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43847</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43864</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43864</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43871</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43871</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43875</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43878</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43893</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43900</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43902</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43903</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43903</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43906</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43907</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43908</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43908</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43930</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43935</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43957</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43959</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43959</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43962</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43969</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43979</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43984</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>44006</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44034</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44040</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44051</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44054</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44075</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44084</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44087</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44088</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44095</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44098</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44106</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>44110</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>44110</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44113</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>44123</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44137</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44151</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44151</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>44153</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>44157</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44162</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>44162</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>44165</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>44166</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44167</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>44181</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>44181</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>44183</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44188</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44188</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>44201</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>44203</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44208</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44215</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44216</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>44221</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44221</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>44230</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44235</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44237</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44251</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44264</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44267</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44270</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44299</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44299</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44307</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44307</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44342</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44343</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44375</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44378</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44378</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44432</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>44432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>44441</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>44448</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44456</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44460</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>44460</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44461</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44474</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44475</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>44476</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>44504</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>44505</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>44550</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>44564</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>44565</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>44580</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>44587</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44594</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44615</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44616</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44620</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44623</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44631</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44642</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>44643</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>44644</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>44685</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44700</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44796</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44802</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>44812</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44816</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>44824</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>44858</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>44858</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44858</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44858</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44867</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>44867</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>44867</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>44875</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>44900</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44900</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44900</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44934</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>44934</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>44935</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>44936</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>44979</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45005</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45105</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45116</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45116</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45116</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45142</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45142</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>45142</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>45142</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45142</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45146</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>45146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>

--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44796</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43332</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43339</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43360</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43392</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>43405</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>43405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43409</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43416</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43425</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43475</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43486</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43503</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43549</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43550</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43552</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43563</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43566</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43587</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43600</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43605</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43609</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43613</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43613</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43627</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43636</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43644</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43651</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43696</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43700</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43700</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43705</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43706</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43707</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43712</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43713</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43733</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43766</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43769</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43770</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43770</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43782</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43783</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43784</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43787</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43787</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43795</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43796</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43796</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43798</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43801</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43801</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43824</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43832</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43843</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43847</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43864</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43864</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43871</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43871</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43875</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43878</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43893</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43900</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43902</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43903</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43903</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43906</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43907</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43908</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43908</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43930</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43935</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43957</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43959</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43959</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43962</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43969</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43979</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43984</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>44006</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44034</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44040</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44051</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44054</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44075</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44084</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44087</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44088</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44095</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44098</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44106</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>44110</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>44110</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44113</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>44123</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44137</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44151</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44151</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>44153</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>44157</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44162</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>44162</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>44165</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>44166</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44167</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>44181</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>44181</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>44183</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44188</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44188</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>44201</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>44203</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44208</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44215</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44216</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>44221</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44221</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>44230</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44235</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44237</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44251</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44264</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44267</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44270</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44299</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44299</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44307</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44307</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44342</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44343</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44375</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44378</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44378</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44432</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>44432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>44441</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>44448</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44456</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44460</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>44460</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44461</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44474</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44475</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>44476</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>44504</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>44505</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>44550</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>44564</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>44565</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>44580</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>44587</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44594</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44615</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44616</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44620</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44623</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44631</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44642</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>44643</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>44644</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>44685</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44700</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44796</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44802</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>44812</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44816</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>44824</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>44858</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>44858</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44858</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44858</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44867</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>44867</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>44867</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>44875</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>44900</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44900</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44900</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44934</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>44934</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>44935</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>44936</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>44979</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45005</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45105</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45116</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45116</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45116</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45142</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45142</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>45142</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>45142</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45142</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45146</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>45146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>

--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44796</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43332</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43339</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43360</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43392</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>43405</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>43405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43409</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43416</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43425</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43475</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43486</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43503</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43549</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43550</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43552</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43563</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43566</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43587</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43600</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43605</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43609</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43613</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43613</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43627</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43636</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43644</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43651</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43696</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43700</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43700</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43705</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43706</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43707</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43712</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43713</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43733</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43766</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43769</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43770</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43770</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43782</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43783</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43784</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43787</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43787</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43795</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43796</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43796</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43798</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43801</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43801</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43824</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43832</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43843</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43847</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43864</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43864</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43871</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43871</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43875</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43878</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43893</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43900</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43902</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43903</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43903</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43906</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43907</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43908</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43908</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43930</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43935</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43957</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43959</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43959</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43962</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43969</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43979</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43984</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>44006</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44034</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44040</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44051</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44054</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44075</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44084</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44087</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44088</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44095</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44098</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44106</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>44110</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>44110</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44113</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>44123</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44137</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44151</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44151</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>44153</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>44157</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44162</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>44162</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>44165</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>44166</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44167</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>44181</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>44181</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>44183</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44188</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44188</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>44201</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>44203</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44208</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44215</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44216</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>44221</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44221</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>44230</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44235</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44237</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44251</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44264</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44267</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44270</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44299</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44299</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44307</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44307</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44342</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44343</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44375</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44378</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44378</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44432</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>44432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>44441</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>44448</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44456</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44460</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>44460</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44461</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44474</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44475</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>44476</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>44504</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>44505</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>44550</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>44564</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>44565</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>44580</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>44587</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44594</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44615</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44616</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44620</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44623</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44631</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44642</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>44643</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>44644</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>44685</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44700</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44796</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44802</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>44812</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44816</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>44824</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>44858</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>44858</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44858</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44858</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44867</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>44867</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>44867</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>44875</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>44900</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44900</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44900</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44934</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>44934</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>44935</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>44936</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>44979</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45005</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45105</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45116</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45116</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45116</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45142</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45142</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>45142</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>45142</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45142</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45146</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>45146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>

--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44796</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43332</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43339</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43360</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43392</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>43405</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>43405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43409</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43416</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43425</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43475</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43486</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43503</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43549</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43550</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43552</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43563</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43566</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43587</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43600</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43605</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43609</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43613</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43613</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43627</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43636</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43644</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43651</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43696</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43700</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43700</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43705</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43706</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43707</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43712</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43713</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43733</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43766</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43769</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43770</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43770</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43782</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43783</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43784</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43787</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43787</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43795</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43796</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43796</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43798</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43801</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43801</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43824</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43832</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43843</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43847</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43864</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43864</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43871</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43871</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43875</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43878</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43893</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43900</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43902</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43903</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43903</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43906</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43907</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43908</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43908</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43930</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43935</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43957</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43959</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43959</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43962</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43969</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43979</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43984</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>44006</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44034</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44040</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44051</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44054</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44075</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44084</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44087</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44088</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44095</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44098</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44106</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>44110</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>44110</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44113</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>44123</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44137</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44151</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44151</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>44153</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>44157</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44162</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>44162</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>44165</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>44166</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44167</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>44181</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>44181</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>44183</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44188</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44188</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>44201</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>44203</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44208</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44215</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44216</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>44221</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44221</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>44230</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44235</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44237</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44251</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44264</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44267</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44270</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44299</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44299</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44307</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44307</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44342</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44343</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44375</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44378</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44378</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44432</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>44432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>44441</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>44448</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44456</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44460</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>44460</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44461</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44474</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44475</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>44476</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>44504</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>44505</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>44550</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>44564</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>44565</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>44580</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>44587</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44594</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44615</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44616</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44620</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44623</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44631</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44642</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>44643</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>44644</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>44685</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44700</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44796</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44802</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>44812</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44816</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>44824</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>44858</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>44858</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44858</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44858</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44867</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>44867</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>44867</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>44875</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>44900</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44900</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44900</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44934</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>44934</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>44935</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>44936</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>44979</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45005</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45105</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45116</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45116</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45116</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45142</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45142</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>45142</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>45142</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45142</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45146</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>45146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>

--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -624,27 +624,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARA/artfynd/A 12589-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARA/artfynd/A 12589-2021.xlsx", "A 12589-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARA/kartor/A 12589-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARA/kartor/A 12589-2021.png", "A 12589-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARA/klagomål/A 12589-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARA/klagomål/A 12589-2021.docx", "A 12589-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARA/klagomålsmail/A 12589-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARA/klagomålsmail/A 12589-2021.docx", "A 12589-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARA/tillsyn/A 12589-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARA/tillsyn/A 12589-2021.docx", "A 12589-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARA/tillsynsmail/A 12589-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARA/tillsynsmail/A 12589-2021.docx", "A 12589-2021")</f>
         <v/>
       </c>
     </row>
@@ -658,7 +658,7 @@
         <v>44796</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -709,27 +709,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARA/artfynd/A 34918-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARA/artfynd/A 34918-2022.xlsx", "A 34918-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARA/kartor/A 34918-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARA/kartor/A 34918-2022.png", "A 34918-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARA/klagomål/A 34918-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARA/klagomål/A 34918-2022.docx", "A 34918-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARA/klagomålsmail/A 34918-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARA/klagomålsmail/A 34918-2022.docx", "A 34918-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARA/tillsyn/A 34918-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARA/tillsyn/A 34918-2022.docx", "A 34918-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARA/tillsynsmail/A 34918-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARA/tillsynsmail/A 34918-2022.docx", "A 34918-2022")</f>
         <v/>
       </c>
     </row>
@@ -743,7 +743,7 @@
         <v>43332</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43339</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43360</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43392</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>43405</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>43405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43409</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43416</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43425</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43475</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43486</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43503</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43549</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43550</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43552</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43563</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43566</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43587</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43600</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43605</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43609</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43613</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43613</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43627</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43636</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43644</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43651</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43696</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43700</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43700</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43705</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43706</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43707</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43712</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43713</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43733</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43766</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43769</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43770</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43770</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43782</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43783</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43784</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43787</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43787</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43795</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43796</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43796</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43798</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43801</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43801</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43824</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43832</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43843</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43847</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43864</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43864</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43871</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43871</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43875</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43878</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43893</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43900</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43902</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43903</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43903</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43906</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43907</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43908</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43908</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43930</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43935</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43957</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43959</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43959</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43962</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43969</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43979</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43984</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>44006</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44034</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44040</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44051</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44054</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44075</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44084</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44087</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44088</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44095</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44098</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44106</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>44110</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>44110</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44113</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>44123</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44137</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44151</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44151</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>44153</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>44157</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44162</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>44162</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>44165</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>44166</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44167</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>44181</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>44181</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>44183</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44188</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44188</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>44201</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>44203</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44208</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44215</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44216</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>44221</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44221</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>44230</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44235</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44237</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44251</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44264</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44267</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44270</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44299</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44299</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44307</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44307</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44342</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44343</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44375</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44378</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44378</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44432</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>44432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>44441</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>44448</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44456</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44460</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>44460</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44461</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44474</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44475</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>44476</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>44504</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>44505</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>44550</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>44564</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>44565</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>44580</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>44587</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44594</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44615</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44616</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44620</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44623</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44631</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44642</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>44643</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>44644</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>44685</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44700</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44796</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44802</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>44812</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44816</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>44824</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>44858</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>44858</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44858</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44858</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44867</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>44867</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>44867</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>44875</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>44900</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44900</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44900</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44934</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>44934</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>44935</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>44936</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>44979</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45005</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45105</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45116</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45116</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45116</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45142</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45142</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>45142</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>45142</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45142</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45146</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>45146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>

--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44796</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43332</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43339</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43360</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43392</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>43405</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>43405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43409</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43416</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43425</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43475</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43486</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43503</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43549</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43550</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43552</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43563</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43566</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43587</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43600</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43605</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43609</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43613</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43613</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43627</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43636</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43644</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43651</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43696</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43700</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43700</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43705</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43706</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43707</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43712</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43713</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43733</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43766</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43769</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43770</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43770</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43782</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43783</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43784</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43787</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43787</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43795</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43796</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43796</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43798</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43801</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43801</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43824</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43832</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43843</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43847</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43864</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43864</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43871</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43871</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43875</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43878</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43893</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43900</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43902</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43903</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43903</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43906</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43907</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43908</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43908</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43930</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43935</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43957</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43959</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43959</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43962</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43969</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43979</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43984</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>44006</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44034</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44040</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44051</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44054</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44075</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44084</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44087</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44088</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44095</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44098</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44106</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>44110</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>44110</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44113</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>44123</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44137</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44151</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44151</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>44153</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>44157</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44162</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>44162</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>44165</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>44166</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44167</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>44181</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>44181</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>44183</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44188</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44188</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>44201</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>44203</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44208</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44215</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44216</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>44221</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44221</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>44230</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44235</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44237</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44251</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44264</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44267</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44270</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44299</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44299</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44307</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44307</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44342</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44343</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44375</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44378</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44378</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44432</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>44432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>44441</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>44448</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44456</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44460</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>44460</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44461</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44474</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44475</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>44476</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>44504</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>44505</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>44550</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>44564</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>44565</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>44580</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>44587</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44594</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44615</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44616</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44620</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44623</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44631</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44642</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>44643</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>44644</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>44685</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44700</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44796</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44802</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>44812</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44816</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>44824</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>44858</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>44858</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44858</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44858</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44867</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>44867</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>44867</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>44875</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>44900</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44900</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44900</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44934</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>44934</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>44935</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>44936</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>44979</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45005</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45105</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45116</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45116</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45116</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45142</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45142</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>45142</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>45142</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45142</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45146</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>45146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>

--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44796</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43332</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43339</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43360</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43392</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>43405</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>43405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43409</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43416</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43425</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43475</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43486</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43503</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43549</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43550</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43552</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43563</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43566</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43587</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43600</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43605</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43609</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43613</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43613</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43627</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43636</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43644</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43651</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43696</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43700</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43700</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43705</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43706</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43707</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43712</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43713</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43733</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43766</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43769</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43770</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43770</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43782</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43783</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43784</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43787</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43787</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43795</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43796</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43796</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43798</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43801</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43801</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43824</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43832</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43843</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43847</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43864</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43864</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43871</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43871</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43875</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43878</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43893</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43900</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43902</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43903</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43903</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43906</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43907</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43908</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43908</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43930</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43935</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43957</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43959</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43959</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43962</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43969</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43979</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43984</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>44006</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44034</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44040</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44051</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44054</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44075</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44084</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44087</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44088</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44095</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44098</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44106</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>44110</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>44110</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44113</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>44123</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44137</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44151</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44151</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>44153</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>44157</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44162</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>44162</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>44165</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>44166</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44167</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>44181</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>44181</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>44183</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44188</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44188</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>44201</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>44203</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44208</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44215</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44216</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>44221</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44221</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>44230</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44235</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44237</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44251</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44264</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44267</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44270</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44299</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44299</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44307</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44307</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44342</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44343</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44375</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44378</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44378</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44432</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>44432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>44441</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>44448</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44456</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44460</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>44460</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44461</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44474</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44475</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>44476</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>44504</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>44505</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>44550</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>44564</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>44565</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>44580</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>44587</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44594</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44615</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44616</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44620</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44623</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44631</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44642</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>44643</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>44644</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>44685</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44700</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44796</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44802</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>44812</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44816</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>44824</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>44858</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>44858</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44858</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44858</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44867</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>44867</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>44867</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>44875</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>44900</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44900</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44900</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44934</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>44934</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>44935</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>44936</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>44979</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45005</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45105</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45116</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45116</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45116</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45142</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45142</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>45142</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>45142</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45142</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45146</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>45146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>

--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44796</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43332</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43339</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43360</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43392</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>43405</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>43405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43409</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43416</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43425</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43475</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43486</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43503</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43549</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43550</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43552</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43563</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43566</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43587</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43600</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43605</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43609</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43613</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43613</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43627</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43636</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43644</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43651</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43696</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43700</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43700</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43705</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43706</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43707</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43712</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43713</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43733</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43766</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43769</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43770</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43770</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43782</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43783</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43784</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43787</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43787</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43795</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43796</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43796</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43798</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43801</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43801</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43824</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43832</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43843</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43847</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43864</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43864</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43871</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43871</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43875</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43878</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43893</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43900</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43902</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43903</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43903</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43906</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43907</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43908</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43908</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43930</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43935</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43957</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43959</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43959</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43962</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43969</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43979</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43984</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>44006</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44034</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44040</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44051</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44054</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44075</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44084</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44087</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44088</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44095</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44098</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44106</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>44110</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>44110</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44113</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>44123</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44137</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44151</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44151</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>44153</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>44157</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44162</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>44162</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>44165</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>44166</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44167</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>44181</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>44181</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>44183</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44188</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44188</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>44201</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>44203</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44208</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44215</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44216</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>44221</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44221</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>44230</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44235</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44237</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44251</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44264</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44267</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44270</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44299</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44299</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44307</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44307</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44342</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44343</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44375</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44378</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44378</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44432</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>44432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>44441</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>44448</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44456</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44460</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>44460</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44461</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44474</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44475</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>44476</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>44504</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>44505</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>44550</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>44564</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>44565</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>44580</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>44587</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44594</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44615</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44616</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44620</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44623</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44631</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44642</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>44643</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>44644</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>44685</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44700</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44796</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44802</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>44812</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44816</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>44824</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>44858</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>44858</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44858</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44858</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44867</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>44867</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>44867</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>44875</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>44900</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44900</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44900</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44934</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>44934</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>44935</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>44936</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>44979</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45005</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45105</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45116</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45116</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45116</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45142</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45142</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>45142</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>45142</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45142</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45146</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>45146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>

--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44796</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43332</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43339</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43360</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43392</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>43405</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>43405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43409</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43416</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43425</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43475</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43486</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43503</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43549</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43550</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43552</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43563</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43566</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43587</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43600</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43605</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43609</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43613</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43613</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43627</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43636</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43644</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43651</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43696</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43700</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43700</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43705</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43706</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43707</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43712</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43713</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43733</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43766</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43769</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43770</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43770</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43782</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43783</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43784</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43787</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43787</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43795</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43796</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43796</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43798</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43801</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43801</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43824</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43832</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43843</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43847</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43864</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43864</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43871</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43871</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43875</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43878</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43893</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43900</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43902</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43903</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43903</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43906</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43907</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43908</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43908</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43930</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43935</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43957</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43959</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43959</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43962</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43969</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43979</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43984</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>44006</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44034</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44040</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44051</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44054</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44075</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44084</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44087</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44088</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44095</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44098</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44106</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>44110</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>44110</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44113</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>44123</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44137</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44151</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44151</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>44153</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>44157</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44162</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>44162</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>44165</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>44166</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44167</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>44181</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>44181</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>44183</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44188</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44188</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>44201</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>44203</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44208</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44215</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44216</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>44221</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44221</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>44230</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44235</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44237</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44251</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44264</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44267</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44270</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44299</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44299</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44307</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44307</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44342</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44343</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44375</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44378</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44378</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44432</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>44432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>44441</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>44448</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44456</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44460</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>44460</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44461</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44474</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44475</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>44476</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>44504</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>44505</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>44550</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>44564</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>44565</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>44580</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>44587</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44594</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44615</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44616</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44620</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44623</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44631</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44642</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>44643</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>44644</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>44685</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44700</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44796</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44802</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>44812</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44816</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>44824</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>44858</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>44858</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44858</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44858</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44867</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>44867</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>44867</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>44875</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>44900</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44900</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44900</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44934</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>44934</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>44935</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>44936</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>44979</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45005</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45105</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45116</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45116</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45116</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45142</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45142</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>45142</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>45142</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45142</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45146</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>45146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>

--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44796</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43332</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43339</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43360</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43392</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>43405</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>43405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43409</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43416</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43425</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43475</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43486</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43503</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43549</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43550</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43552</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43563</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43566</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43587</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43600</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43605</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43609</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43613</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43613</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43627</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43636</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43644</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43651</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43696</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43700</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43700</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43705</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43706</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43707</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43712</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43713</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43733</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43766</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43769</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43770</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43770</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43782</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43783</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43784</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43787</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43787</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43795</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43796</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43796</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43798</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43801</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43801</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43824</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43832</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43843</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43847</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43864</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43864</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43871</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43871</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43875</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43878</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43893</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43900</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43902</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43903</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43903</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43906</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43907</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43908</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43908</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43930</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43935</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43957</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43959</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43959</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43962</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43969</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43979</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43984</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>44006</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44034</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44040</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44051</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44054</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44075</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44084</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44087</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44088</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44095</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44098</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44106</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>44110</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>44110</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44113</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>44123</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44137</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44151</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44151</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>44153</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>44157</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44162</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>44162</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>44165</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>44166</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44167</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>44181</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>44181</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>44183</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44188</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44188</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>44201</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>44203</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44208</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44215</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44216</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>44221</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44221</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>44230</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44235</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44237</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44251</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44264</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44267</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44270</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44299</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44299</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44307</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44307</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44342</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44343</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44375</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44378</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44378</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44432</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>44432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>44441</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>44448</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44456</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44460</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>44460</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44461</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44474</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44475</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>44476</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>44504</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>44505</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>44550</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>44564</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>44565</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>44580</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>44587</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44594</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44615</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44616</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44620</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44623</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44631</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44642</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>44643</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>44644</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>44685</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44700</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44796</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44802</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>44812</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44816</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>44824</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>44858</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>44858</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44858</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44858</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44867</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>44867</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>44867</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>44875</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>44900</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44900</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44900</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44934</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>44934</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>44935</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>44936</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>44979</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45005</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45105</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45116</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45116</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45116</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45142</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45142</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>45142</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>45142</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45142</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45146</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>45146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>

--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44796</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43332</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43339</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43360</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43392</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>43405</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>43405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43409</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43416</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43425</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43475</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43486</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43503</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43549</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43550</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43552</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43563</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43566</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43587</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43600</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43605</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43609</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43613</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43613</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43627</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43636</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43644</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43651</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43696</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43700</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43700</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43705</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43706</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43707</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43712</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43713</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43733</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43766</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43769</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43770</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43770</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43782</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43783</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43784</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43787</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43787</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43795</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43796</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43796</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43798</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43801</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43801</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43824</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43832</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43843</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43847</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43864</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43864</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43871</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43871</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43875</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43878</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43893</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43900</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43902</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43903</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43903</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43906</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43907</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43908</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43908</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43930</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43935</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43957</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43959</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43959</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43962</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43969</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43979</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43984</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>44006</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44034</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44040</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44051</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44054</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44075</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44084</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44087</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44088</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44095</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44098</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44106</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>44110</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>44110</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44113</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>44123</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44137</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44151</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44151</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>44153</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>44157</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44162</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>44162</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>44165</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>44166</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44167</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>44181</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>44181</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>44183</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44188</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44188</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>44201</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>44203</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44208</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44215</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44216</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>44221</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44221</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>44230</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44235</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44237</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44251</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44264</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44267</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44270</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44299</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44299</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44307</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44307</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44342</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44343</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44375</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44378</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44378</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44432</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>44432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>44441</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>44448</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44456</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44460</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>44460</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44461</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44474</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44475</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>44476</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>44504</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>44505</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>44550</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>44564</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>44565</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>44580</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>44587</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44594</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44615</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44616</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44620</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44623</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44631</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44642</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>44643</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>44644</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>44685</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44700</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44796</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44802</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>44812</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44816</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>44824</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>44858</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>44858</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44858</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44858</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44867</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>44867</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>44867</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>44875</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>44900</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44900</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44900</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44934</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>44934</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>44935</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>44936</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>44979</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45005</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45105</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45116</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45116</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45116</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45142</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45142</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>45142</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>45142</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45142</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45146</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>45146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>

--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44796</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>43332</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43339</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>43360</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43392</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>43405</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>43405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43409</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>43416</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>43423</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>43425</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>43426</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43430</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>43437</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>43445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>43475</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43475</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43486</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>43495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>43501</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>43503</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>43516</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43524</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43549</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43550</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43552</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43557</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43563</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43566</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43587</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43599</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43600</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43605</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43606</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43609</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43613</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43613</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43627</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43630</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43636</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43644</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43651</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43651</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43683</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43686</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43690</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43696</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43700</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43700</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43705</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43706</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43707</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43712</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43713</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43733</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43766</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43769</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43770</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43770</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43782</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43783</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43784</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43787</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43787</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43795</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43796</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43796</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43796</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43798</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43801</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43801</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43824</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43832</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43843</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43843</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43847</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43860</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43864</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43864</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43871</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43871</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43875</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43878</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43893</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43900</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43902</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43903</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43903</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43906</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43907</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43907</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43908</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43908</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43917</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43930</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>43935</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>43957</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
         <v>43959</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>43959</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>43962</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>43963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43969</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>43979</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>43984</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>44006</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44034</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44040</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44051</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44054</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44075</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44084</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44087</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44088</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44095</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44098</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44106</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>44110</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>44110</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44113</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>44119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>44123</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>44127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44137</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44151</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>44151</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>44153</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>44157</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44162</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>44162</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>44165</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>44166</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44167</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>44181</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>44181</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>44183</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>44188</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44188</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>44201</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>44203</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>44208</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>44215</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>44216</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>44218</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>44221</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>44221</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>44230</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44235</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44237</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44251</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44264</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44267</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44270</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44299</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44299</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44307</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44307</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44342</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44343</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44375</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44378</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44378</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44432</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>44432</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>44441</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>44448</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44456</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44460</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>44460</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44461</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44474</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44475</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>44476</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>44504</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>44505</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>44550</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>44564</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>44565</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44579</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>44580</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>44587</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44594</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44615</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44616</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44620</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44623</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44631</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44642</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>44643</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>44644</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>44685</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44700</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44796</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>44802</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>44812</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44816</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>44824</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>44837</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>44858</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>44858</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44858</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44858</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44867</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>44867</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>44867</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>44875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>44875</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>44900</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44900</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44900</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>44934</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>44934</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>44935</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>44936</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>44979</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45005</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>45105</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45116</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45116</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45116</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>45142</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45142</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>45142</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>45142</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45142</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45146</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45146</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>45146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
